--- a/client/demo/item.xlsx
+++ b/client/demo/item.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\msf1\Software\fleet-management\client\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065F692A-DE38-4200-9189-D648BDC79949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC156AE-D8D2-468E-B26C-4A3F16D70FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="475">
   <si>
     <t>item code</t>
   </si>
@@ -1427,6 +1427,30 @@
   </si>
   <si>
     <t>Set of rails / R 3100 / long. 100mmwith cage 14 rollers + 8 screws</t>
+  </si>
+  <si>
+    <t>Beckhoff.jpg</t>
+  </si>
+  <si>
+    <t>Rails3100.jpg</t>
+  </si>
+  <si>
+    <t>Lever10x500.jpg</t>
+  </si>
+  <si>
+    <t>Piston_rod15x104.jpg</t>
+  </si>
+  <si>
+    <t>Rails1808.jpg</t>
+  </si>
+  <si>
+    <t>Clevi15x15x24.jpg</t>
+  </si>
+  <si>
+    <t>Rubber_driven_wheel.jpg</t>
+  </si>
+  <si>
+    <t>Swiveling_fitting620X1-9046.jpg</t>
   </si>
 </sst>
 </file>
@@ -1750,7 +1774,7 @@
   <dimension ref="A1:D312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1836,6 +1860,9 @@
       <c r="B9" t="s">
         <v>466</v>
       </c>
+      <c r="C9" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1844,6 +1871,9 @@
       <c r="B10" t="s">
         <v>155</v>
       </c>
+      <c r="C10" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -1852,6 +1882,9 @@
       <c r="B11" t="s">
         <v>65</v>
       </c>
+      <c r="C11" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -1860,6 +1893,9 @@
       <c r="B12" t="s">
         <v>465</v>
       </c>
+      <c r="C12" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1868,6 +1904,9 @@
       <c r="B13" t="s">
         <v>64</v>
       </c>
+      <c r="C13" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -1876,6 +1915,9 @@
       <c r="B14" t="s">
         <v>217</v>
       </c>
+      <c r="C14" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -1884,6 +1926,9 @@
       <c r="B15" t="s">
         <v>93</v>
       </c>
+      <c r="C15" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2533,7 +2578,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>122639</v>
       </c>
@@ -2541,7 +2586,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>122758</v>
       </c>
@@ -2549,7 +2594,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>123183</v>
       </c>
@@ -2557,7 +2602,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>123191</v>
       </c>
@@ -2565,7 +2610,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>123525</v>
       </c>
@@ -2573,7 +2618,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>123575</v>
       </c>
@@ -2581,7 +2626,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>123758</v>
       </c>
@@ -2589,7 +2634,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>124278</v>
       </c>
@@ -2597,7 +2642,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>124280</v>
       </c>
@@ -2605,7 +2650,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>124369</v>
       </c>
@@ -2613,7 +2658,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>124701</v>
       </c>
@@ -2621,7 +2666,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>124702</v>
       </c>
@@ -2629,7 +2674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>124703</v>
       </c>
@@ -2637,7 +2682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>124927</v>
       </c>
@@ -2645,15 +2690,18 @@
         <v>47</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>125034</v>
       </c>
       <c r="B111" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>125363</v>
       </c>
